--- a/data/trans_orig/IMC_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R-Habitat-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2007 (tasa de respuesta: 98,86%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2007 (tasa de respuesta: 98,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2589,7 +2589,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2012 (tasa de respuesta: 96,9%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2012 (tasa de respuesta: 96,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4624,7 +4624,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2016 (tasa de respuesta: 95,54%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2016 (tasa de respuesta: 95,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6659,7 +6659,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2023 (tasa de respuesta: 96,36%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2023 (tasa de respuesta: 96,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>80690</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>64671</v>
+        <v>64067</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>99357</v>
+        <v>99255</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1170567750588922</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09381833075655244</v>
+        <v>0.09294208291254007</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1441371053197021</v>
+        <v>0.1439890629934504</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>106</v>
@@ -765,19 +765,19 @@
         <v>104834</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>87020</v>
+        <v>89019</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>123013</v>
+        <v>123955</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1543813195511227</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1281490666394678</v>
+        <v>0.1310928282395378</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1811526906147716</v>
+        <v>0.1825400922860927</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>185</v>
@@ -786,19 +786,19 @@
         <v>185524</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>159400</v>
+        <v>160568</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>210282</v>
+        <v>211090</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1355789977463804</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1164881945404043</v>
+        <v>0.1173419296797148</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1536720128601878</v>
+        <v>0.1542626406627813</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>354687</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>327643</v>
+        <v>328430</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>379720</v>
+        <v>382399</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5145428379956877</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4753092811730624</v>
+        <v>0.476452053350622</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5508570900120709</v>
+        <v>0.5547442973954509</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>254</v>
@@ -836,19 +836,19 @@
         <v>250129</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>227294</v>
+        <v>227438</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>275130</v>
+        <v>273418</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3683479662831561</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3347210363350947</v>
+        <v>0.3349321455778862</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4051647405453124</v>
+        <v>0.4026435865478672</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>606</v>
@@ -857,19 +857,19 @@
         <v>604816</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>570311</v>
+        <v>566633</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>639843</v>
+        <v>641737</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4419939561147059</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4167781383922915</v>
+        <v>0.4140905222345863</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4675914908237953</v>
+        <v>0.4689758212852925</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>249249</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>226476</v>
+        <v>221368</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>276668</v>
+        <v>276534</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3615840963819308</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3285473484563266</v>
+        <v>0.3211375853134415</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4013603461281359</v>
+        <v>0.4011664489580658</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>312</v>
@@ -907,19 +907,19 @@
         <v>308834</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>283800</v>
+        <v>285586</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>336650</v>
+        <v>333651</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4547992141450184</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.417933348900341</v>
+        <v>0.4205627455562714</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4957612425221382</v>
+        <v>0.4913449708755678</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>554</v>
@@ -928,19 +928,19 @@
         <v>558083</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>521913</v>
+        <v>522813</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>594455</v>
+        <v>598123</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4078418924926843</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3814096155164572</v>
+        <v>0.3820668568779446</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4344221087798909</v>
+        <v>0.4371027242994309</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>4699</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1780</v>
+        <v>1825</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10451</v>
+        <v>11424</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006816290563489333</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002582548171789907</v>
+        <v>0.00264679410527451</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01516115277047221</v>
+        <v>0.01657272094016198</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -978,19 +978,19 @@
         <v>15259</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9022</v>
+        <v>8815</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25083</v>
+        <v>24733</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02247150002070285</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01328549846450282</v>
+        <v>0.01298166106586588</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03693790119464697</v>
+        <v>0.03642259574766717</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -999,19 +999,19 @@
         <v>19958</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11746</v>
+        <v>12557</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29966</v>
+        <v>30958</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01458515364622944</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008583687229094651</v>
+        <v>0.00917636407243577</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02189890943954163</v>
+        <v>0.02262375772656869</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>139964</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>119222</v>
+        <v>120349</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>162785</v>
+        <v>163487</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1467576763124779</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1250085171847132</v>
+        <v>0.1261901244029706</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1706859314205801</v>
+        <v>0.1714221841025172</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>133</v>
@@ -1124,19 +1124,19 @@
         <v>144342</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>122019</v>
+        <v>122810</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>167177</v>
+        <v>167012</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1510338422209306</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1276764362344222</v>
+        <v>0.1285041273167596</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1749269974133557</v>
+        <v>0.1747545489917361</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>262</v>
@@ -1145,19 +1145,19 @@
         <v>284306</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>253832</v>
+        <v>251488</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>317761</v>
+        <v>316451</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1488979796385868</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1329377913397394</v>
+        <v>0.1317103036260389</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1664192886706997</v>
+        <v>0.165732810216032</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>452592</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>417669</v>
+        <v>421095</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>480013</v>
+        <v>484838</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.474559370970632</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4379408432565631</v>
+        <v>0.4415337254854458</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5033111272821744</v>
+        <v>0.5083708891173542</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>309</v>
@@ -1195,19 +1195,19 @@
         <v>329887</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>302761</v>
+        <v>300651</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>361826</v>
+        <v>360918</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3451813987321386</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3167977507370165</v>
+        <v>0.3145899547587733</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3786003515173222</v>
+        <v>0.3776502627915389</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>740</v>
@@ -1216,19 +1216,19 @@
         <v>782479</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>737326</v>
+        <v>739411</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>824692</v>
+        <v>827768</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4098032061642335</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3861550009543696</v>
+        <v>0.3872470155266096</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4319111764982155</v>
+        <v>0.4335218335315992</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>357395</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>327476</v>
+        <v>327403</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>389485</v>
+        <v>386473</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3747419846833587</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3433707424418442</v>
+        <v>0.3432943123013323</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4083893854604109</v>
+        <v>0.4052309515876885</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>435</v>
@@ -1266,19 +1266,19 @@
         <v>461466</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>425761</v>
+        <v>430100</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>491584</v>
+        <v>492385</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4828599043190244</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4454996891190969</v>
+        <v>0.4500397372612551</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5143748028633893</v>
+        <v>0.5152130295158065</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>761</v>
@@ -1287,19 +1287,19 @@
         <v>818861</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>773466</v>
+        <v>770700</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>865848</v>
+        <v>859307</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4288570840415865</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4050827132730568</v>
+        <v>0.4036338673723901</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.453465364631645</v>
+        <v>0.4500394499796482</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>3759</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11551</v>
+        <v>10239</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.003940968033531396</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.001034661844827223</v>
+        <v>0.001029319019515518</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01211217143194795</v>
+        <v>0.01073605572161136</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>20</v>
@@ -1337,19 +1337,19 @@
         <v>19998</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13073</v>
+        <v>13012</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>31359</v>
+        <v>30577</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02092485472790645</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01367918698065059</v>
+        <v>0.01361556759993891</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03281312366253317</v>
+        <v>0.03199476511134339</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>23</v>
@@ -1358,19 +1358,19 @@
         <v>23756</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15790</v>
+        <v>15996</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>35803</v>
+        <v>35620</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0124417301555932</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.00826938325944588</v>
+        <v>0.008377724074872875</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01875074641527285</v>
+        <v>0.01865483441453699</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>73032</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>56918</v>
+        <v>57388</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>90938</v>
+        <v>90369</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1086588284267667</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08468488240257048</v>
+        <v>0.08538379537779228</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1353002938829948</v>
+        <v>0.1344528432304269</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>100</v>
@@ -1483,19 +1483,19 @@
         <v>96577</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>81248</v>
+        <v>79518</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>115118</v>
+        <v>115195</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1426184568069581</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1199815313179088</v>
+        <v>0.1174275138180996</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1699989977179342</v>
+        <v>0.1701131816104146</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>169</v>
@@ -1504,19 +1504,19 @@
         <v>169609</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>148763</v>
+        <v>145967</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>196744</v>
+        <v>195577</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1257021629140613</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.11025306139763</v>
+        <v>0.1081804766714955</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1458132810657419</v>
+        <v>0.1449483639679291</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>303292</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>277128</v>
+        <v>275769</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>330319</v>
+        <v>328757</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4512457434700838</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4123192244325496</v>
+        <v>0.4102968489844552</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4914581056465848</v>
+        <v>0.4891335349090815</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>219</v>
@@ -1554,19 +1554,19 @@
         <v>214214</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>192458</v>
+        <v>192405</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>238053</v>
+        <v>237109</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3163376824052027</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2842097526366204</v>
+        <v>0.2841319740756446</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3515412290298232</v>
+        <v>0.3501468902717395</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>511</v>
@@ -1575,19 +1575,19 @@
         <v>517506</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>484888</v>
+        <v>482244</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>555223</v>
+        <v>555155</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3835393721276252</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3593653397973133</v>
+        <v>0.3574060685313089</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4114928146084679</v>
+        <v>0.4114422717755917</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>290039</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>263722</v>
+        <v>264958</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>315371</v>
+        <v>318488</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4315286724191432</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3923735022774067</v>
+        <v>0.3942115169316974</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4692178088113861</v>
+        <v>0.4738549337947511</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>352</v>
@@ -1625,19 +1625,19 @@
         <v>348347</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>322479</v>
+        <v>322349</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>372293</v>
+        <v>372742</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5144167495935983</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4762160167439115</v>
+        <v>0.4760251337834493</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5497790119712628</v>
+        <v>0.5504419656688441</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>620</v>
@@ -1646,19 +1646,19 @@
         <v>638387</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>602090</v>
+        <v>603979</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>674796</v>
+        <v>679055</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4731277502558414</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4462271865475034</v>
+        <v>0.4476273567602178</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5001121827921594</v>
+        <v>0.5032684463785072</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>5758</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1940</v>
+        <v>1973</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11680</v>
+        <v>11663</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.008566755684006361</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002886208205478074</v>
+        <v>0.002936163888447099</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01737726440943847</v>
+        <v>0.01735292634530548</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -1696,19 +1696,19 @@
         <v>18031</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10746</v>
+        <v>10625</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27806</v>
+        <v>28979</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02662711119424092</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01586828851015896</v>
+        <v>0.0156906496364488</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04106277421781208</v>
+        <v>0.04279469554316782</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>25</v>
@@ -1717,19 +1717,19 @@
         <v>23789</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16396</v>
+        <v>15676</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>35674</v>
+        <v>33743</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01763071470247213</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01215194286060176</v>
+        <v>0.0116179488164817</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02643936795926725</v>
+        <v>0.02500791253994496</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>101766</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>84526</v>
+        <v>85429</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>122969</v>
+        <v>121317</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1095522074023303</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09099334812455324</v>
+        <v>0.09196549711827703</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1323780890746009</v>
+        <v>0.130599509001159</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>144</v>
@@ -1842,19 +1842,19 @@
         <v>151558</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>129368</v>
+        <v>130560</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>176490</v>
+        <v>175952</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1484322359944095</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1266996276909414</v>
+        <v>0.1278668864910107</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1728492239864785</v>
+        <v>0.172322653905685</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>252</v>
@@ -1863,19 +1863,19 @@
         <v>253324</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>223333</v>
+        <v>225046</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>283619</v>
+        <v>284143</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1299107750500323</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1145305597256968</v>
+        <v>0.1154093548678454</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1454466682895718</v>
+        <v>0.1457156825904657</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>418522</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>390538</v>
+        <v>388434</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>451779</v>
+        <v>448455</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4505456378595772</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4204206690151964</v>
+        <v>0.4181547265847506</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4863467639190798</v>
+        <v>0.4827691557038694</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>275</v>
@@ -1913,19 +1913,19 @@
         <v>283501</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>257885</v>
+        <v>255600</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>313804</v>
+        <v>310097</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2776537257959471</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2525653185906224</v>
+        <v>0.2503283174341916</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3073314345810663</v>
+        <v>0.3037008154869376</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>719</v>
@@ -1934,19 +1934,19 @@
         <v>702024</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>661076</v>
+        <v>661228</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>745546</v>
+        <v>743380</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3600150540367807</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3390160878717893</v>
+        <v>0.339094044132235</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3823346094134163</v>
+        <v>0.3812235746541878</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>404516</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>373683</v>
+        <v>374901</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>435548</v>
+        <v>431903</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4354674579949335</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4022760147094822</v>
+        <v>0.4035870521031311</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4688741866568762</v>
+        <v>0.4649502862968742</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>529</v>
@@ -1984,19 +1984,19 @@
         <v>551628</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>520545</v>
+        <v>519249</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>584373</v>
+        <v>582997</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5402499447306631</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.509807867436374</v>
+        <v>0.5085385467507687</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5723189628433593</v>
+        <v>0.5709720818036667</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>953</v>
@@ -2005,19 +2005,19 @@
         <v>956144</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>914368</v>
+        <v>910720</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1000522</v>
+        <v>997422</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4903342217744842</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4689103509323412</v>
+        <v>0.4670399839328599</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5130924032661235</v>
+        <v>0.5115028317649346</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>4119</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1552</v>
+        <v>865</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10905</v>
+        <v>10973</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004434696743159003</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001670851331901974</v>
+        <v>0.0009314925081899409</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01173922970019507</v>
+        <v>0.01181280599042445</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -2055,19 +2055,19 @@
         <v>34373</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24477</v>
+        <v>24396</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47325</v>
+        <v>47749</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0336640934789803</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02397185273496072</v>
+        <v>0.02389305463071424</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04634859382334312</v>
+        <v>0.04676433772960901</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>37</v>
@@ -2076,19 +2076,19 @@
         <v>38493</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26129</v>
+        <v>27209</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>51761</v>
+        <v>51953</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01973994913870293</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01339954317205572</v>
+        <v>0.01395350208346446</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02654428450829057</v>
+        <v>0.02664300362094929</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>395452</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>356348</v>
+        <v>361018</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>431024</v>
+        <v>438086</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1218995832882864</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1098455464763209</v>
+        <v>0.1112850688584412</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1328646971733349</v>
+        <v>0.1350416489880544</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>483</v>
@@ -2201,19 +2201,19 @@
         <v>497311</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>456279</v>
+        <v>453860</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>540944</v>
+        <v>538448</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1492090746758289</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1368983096644281</v>
+        <v>0.1361725519277852</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1623005506536087</v>
+        <v>0.161551498502343</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>868</v>
@@ -2222,19 +2222,19 @@
         <v>892762</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>839611</v>
+        <v>841436</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>950390</v>
+        <v>947870</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1357388950030567</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1276574904101917</v>
+        <v>0.127935010236748</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1445007979349868</v>
+        <v>0.1441176397000261</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>1529093</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1466551</v>
+        <v>1466248</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1587582</v>
+        <v>1586094</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4713489369566074</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4520699353993372</v>
+        <v>0.451976671560486</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.489378338754563</v>
+        <v>0.4889196972199787</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1057</v>
@@ -2272,19 +2272,19 @@
         <v>1077731</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1024412</v>
+        <v>1026444</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1132091</v>
+        <v>1132489</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3233539133949597</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.307356491516477</v>
+        <v>0.3079659965077042</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3396634355430825</v>
+        <v>0.3397829130045206</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2576</v>
@@ -2293,19 +2293,19 @@
         <v>2606825</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2531897</v>
+        <v>2535902</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2684381</v>
+        <v>2686796</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3963512288616592</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3849589902093436</v>
+        <v>0.3855679571360917</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4081432497550395</v>
+        <v>0.408510348314078</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>1301199</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1248469</v>
+        <v>1242758</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1359094</v>
+        <v>1356148</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4010997776678299</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3848453981123178</v>
+        <v>0.3830851088805634</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4189460238900457</v>
+        <v>0.4180377545733023</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1628</v>
@@ -2343,19 +2343,19 @@
         <v>1670275</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1612206</v>
+        <v>1617232</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1724589</v>
+        <v>1730685</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5011358289076082</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4837134437733981</v>
+        <v>0.4852212788791043</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5174318979494478</v>
+        <v>0.5192607847759626</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2888</v>
@@ -2364,19 +2364,19 @@
         <v>2971474</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2894126</v>
+        <v>2892624</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3054357</v>
+        <v>3051422</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4517938779780812</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.440033600128135</v>
+        <v>0.4398052583121244</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4643956661201386</v>
+        <v>0.4639493960477444</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>18335</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>11175</v>
+        <v>10844</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>29415</v>
+        <v>28952</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.005651702087276208</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.003444622121332312</v>
+        <v>0.003342578023786163</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.009067166142768278</v>
+        <v>0.00892445102247626</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>87</v>
@@ -2414,19 +2414,19 @@
         <v>87661</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>70962</v>
+        <v>71686</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>109581</v>
+        <v>109676</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02630118302160313</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02129100182918055</v>
+        <v>0.02150817968560661</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03287777203212987</v>
+        <v>0.03290620607330145</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>105</v>
@@ -2435,19 +2435,19 @@
         <v>105996</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>86937</v>
+        <v>86671</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>126942</v>
+        <v>126063</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01611599815720283</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01321827938302633</v>
+        <v>0.01317775129311854</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01930079490735423</v>
+        <v>0.0191670652576693</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>136290</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>114336</v>
+        <v>117112</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>156577</v>
+        <v>158902</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1964920018538618</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1648406966593292</v>
+        <v>0.1688432632116196</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2257402219623854</v>
+        <v>0.2290925275145012</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>135</v>
@@ -2800,19 +2800,19 @@
         <v>142742</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>123042</v>
+        <v>121001</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>166487</v>
+        <v>166516</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2155698742284972</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1858186738804083</v>
+        <v>0.1827359212365648</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2514293130504423</v>
+        <v>0.2514733110793599</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>264</v>
@@ -2821,19 +2821,19 @@
         <v>279032</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>250217</v>
+        <v>248980</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>309258</v>
+        <v>310631</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2058096540141748</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1845564063852053</v>
+        <v>0.1836439158350195</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2281041397790167</v>
+        <v>0.2291166218117051</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>353421</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>327097</v>
+        <v>325620</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>382544</v>
+        <v>380562</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5095357587111419</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4715830750591564</v>
+        <v>0.4694542857662031</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5515228278193248</v>
+        <v>0.5486651310030402</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>205</v>
@@ -2871,19 +2871,19 @@
         <v>219372</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>194202</v>
+        <v>195815</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>245285</v>
+        <v>242409</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3312959247415664</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2932844172531172</v>
+        <v>0.2957195431371726</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3704294267551006</v>
+        <v>0.3660863394986423</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>540</v>
@@ -2892,19 +2892,19 @@
         <v>572793</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>537154</v>
+        <v>535416</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>610030</v>
+        <v>610886</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4224832435549716</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3961965865850821</v>
+        <v>0.3949145641581628</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4499484736028218</v>
+        <v>0.4505799852341154</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>197356</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>172712</v>
+        <v>173503</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>221253</v>
+        <v>222417</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2845334705043007</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2490026690724208</v>
+        <v>0.2501429416956566</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3189851959199331</v>
+        <v>0.3206638017422335</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>259</v>
@@ -2942,19 +2942,19 @@
         <v>281977</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>257357</v>
+        <v>251944</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>307621</v>
+        <v>307416</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4258415522457362</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3886606510849726</v>
+        <v>0.3804859141345526</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4645704873191539</v>
+        <v>0.4642596914875476</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>454</v>
@@ -2963,19 +2963,19 @@
         <v>479333</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>443961</v>
+        <v>444286</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>513279</v>
+        <v>512892</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3535484805249306</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3274588432441949</v>
+        <v>0.3276985816911566</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3785865625231424</v>
+        <v>0.3783014930471564</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>6547</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3067</v>
+        <v>2948</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14374</v>
+        <v>13677</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009438768930695564</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004421972137235219</v>
+        <v>0.00425013079768963</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02072405078979044</v>
+        <v>0.0197188327457062</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -3013,19 +3013,19 @@
         <v>18072</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11057</v>
+        <v>11388</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27623</v>
+        <v>27435</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02729264878420024</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01669766929518645</v>
+        <v>0.01719879156543123</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04171676800955734</v>
+        <v>0.04143169846773873</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -3034,19 +3034,19 @@
         <v>24619</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16511</v>
+        <v>15942</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36202</v>
+        <v>35694</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01815862190592307</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01217840559078979</v>
+        <v>0.01175868513099306</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02670181424480482</v>
+        <v>0.0263275209194258</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>172938</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>148506</v>
+        <v>148948</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>199367</v>
+        <v>197620</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1743607663722469</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1497277205609478</v>
+        <v>0.1501734097390273</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2010076505439105</v>
+        <v>0.1992465552449315</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>206</v>
@@ -3159,19 +3159,19 @@
         <v>225094</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>199829</v>
+        <v>198175</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>254880</v>
+        <v>253135</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2276019314439618</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2020556808197727</v>
+        <v>0.2003837968763232</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2577203413311664</v>
+        <v>0.2559563885859411</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>365</v>
@@ -3180,19 +3180,19 @@
         <v>398031</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>362620</v>
+        <v>365909</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>436746</v>
+        <v>437516</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.200942926752871</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1830658767834314</v>
+        <v>0.1847263164529141</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2204876964694587</v>
+        <v>0.2208768529933354</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>482328</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>447859</v>
+        <v>449710</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>512880</v>
+        <v>513497</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4862972430027311</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4515444287652174</v>
+        <v>0.45341074851249</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5171005154214158</v>
+        <v>0.5177227695162315</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>293</v>
@@ -3230,19 +3230,19 @@
         <v>326050</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>292093</v>
+        <v>297429</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>357413</v>
+        <v>360141</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3296835187309577</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2953481613156526</v>
+        <v>0.30074330588228</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.361395964022282</v>
+        <v>0.3641546818699067</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>737</v>
@@ -3251,19 +3251,19 @@
         <v>808378</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>763168</v>
+        <v>760331</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>852109</v>
+        <v>851924</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.408103403127299</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3852795411783995</v>
+        <v>0.3838474599522672</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4301810456960516</v>
+        <v>0.4300875662686565</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>330424</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>302578</v>
+        <v>301787</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>362805</v>
+        <v>362900</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3331429997026789</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3050679554816002</v>
+        <v>0.304270877074223</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3657902464209317</v>
+        <v>0.365886452839453</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>380</v>
@@ -3301,19 +3301,19 @@
         <v>415135</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>382035</v>
+        <v>383612</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>449057</v>
+        <v>446206</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4197616504658704</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3862928230758526</v>
+        <v>0.3878866022244938</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4540615339281452</v>
+        <v>0.4511784476040538</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>685</v>
@@ -3322,19 +3322,19 @@
         <v>745559</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>701927</v>
+        <v>701463</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>790194</v>
+        <v>788491</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3763898156474274</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3543625215275708</v>
+        <v>0.3541283133989238</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3989234363149627</v>
+        <v>0.3980639769212084</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>6148</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2041</v>
+        <v>2058</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12281</v>
+        <v>12483</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.006198990922343163</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002057819947157687</v>
+        <v>0.002075297338490821</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01238157462283358</v>
+        <v>0.01258562711563184</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>21</v>
@@ -3372,19 +3372,19 @@
         <v>22700</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14817</v>
+        <v>14359</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>35673</v>
+        <v>33780</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02295289935921009</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01498196295898774</v>
+        <v>0.01451929967268966</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0360705327984331</v>
+        <v>0.03415648978049116</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -3393,19 +3393,19 @@
         <v>28848</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>19313</v>
+        <v>18684</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>41244</v>
+        <v>41208</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01456385447240264</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009750148404351559</v>
+        <v>0.009432426547908499</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02082188086139286</v>
+        <v>0.02080372132051678</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>107865</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>89614</v>
+        <v>89110</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>130410</v>
+        <v>131115</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1457745776649124</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1211094130858811</v>
+        <v>0.1204277370442122</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1762426815797744</v>
+        <v>0.177195204279025</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>141</v>
@@ -3518,19 +3518,19 @@
         <v>151746</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>129393</v>
+        <v>130010</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>174024</v>
+        <v>174611</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2035216354654765</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1735424263268302</v>
+        <v>0.1743692804825753</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2334008294969555</v>
+        <v>0.2341883096006147</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>236</v>
@@ -3539,19 +3539,19 @@
         <v>259611</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>230194</v>
+        <v>231383</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>291055</v>
+        <v>292727</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1747580644916</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1549557602861869</v>
+        <v>0.155756622948839</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.195924549653737</v>
+        <v>0.1970502332566247</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>334808</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>306759</v>
+        <v>308431</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>365498</v>
+        <v>362173</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4524776213402131</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4145705948038829</v>
+        <v>0.416829656395057</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4939530020205433</v>
+        <v>0.4894596146817196</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>245</v>
@@ -3589,19 +3589,19 @@
         <v>271001</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>243485</v>
+        <v>241894</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>299526</v>
+        <v>300349</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3634668853274483</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3265615272541277</v>
+        <v>0.3244276343818296</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4017237492649238</v>
+        <v>0.40282815790419</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>549</v>
@@ -3610,19 +3610,19 @@
         <v>605809</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>566234</v>
+        <v>568560</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>647320</v>
+        <v>646335</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4078027652883341</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.381162421522613</v>
+        <v>0.38272840434672</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4357459254016535</v>
+        <v>0.4350830020939933</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>290503</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>263780</v>
+        <v>264904</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>319043</v>
+        <v>318634</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3926009140952926</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3564860835618345</v>
+        <v>0.3580054026793307</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4311718578286378</v>
+        <v>0.4306197213238909</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>274</v>
@@ -3660,19 +3660,19 @@
         <v>305532</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>277042</v>
+        <v>280257</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>334547</v>
+        <v>334945</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4097788475660909</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3715681457075828</v>
+        <v>0.3758804761355697</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4486945763171638</v>
+        <v>0.4492284910687804</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>541</v>
@@ -3681,19 +3681,19 @@
         <v>596034</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>555747</v>
+        <v>555922</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>634550</v>
+        <v>634593</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4012225898554684</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3741034011880238</v>
+        <v>0.3742209778816437</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4271496603548485</v>
+        <v>0.4271784956689814</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>6768</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2901</v>
+        <v>2856</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14401</v>
+        <v>13157</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.009146886899581935</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003920462009179625</v>
+        <v>0.003860417231676377</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01946293756542911</v>
+        <v>0.01778126348854333</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -3731,19 +3731,19 @@
         <v>17322</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9924</v>
+        <v>10342</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26025</v>
+        <v>26663</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02323263164098439</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01330974764639773</v>
+        <v>0.0138706739776939</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03490526090483757</v>
+        <v>0.03576015050233503</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -3752,19 +3752,19 @@
         <v>24090</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15834</v>
+        <v>16149</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>35799</v>
+        <v>35892</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01621658036459747</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01065857392411603</v>
+        <v>0.01087056735551726</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02409854087422337</v>
+        <v>0.0241611009560254</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>138211</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>116293</v>
+        <v>117020</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>162513</v>
+        <v>163808</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1478275117975922</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1243850554407426</v>
+        <v>0.1251622238362704</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1738208701980608</v>
+        <v>0.175206377376478</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>187</v>
@@ -3877,19 +3877,19 @@
         <v>198427</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>172845</v>
+        <v>173224</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>225971</v>
+        <v>225527</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1963070335710049</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1709987243932824</v>
+        <v>0.1713734682000686</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2235564751432415</v>
+        <v>0.2231178411167335</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>314</v>
@@ -3898,19 +3898,19 @@
         <v>336637</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>301847</v>
+        <v>301685</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>367130</v>
+        <v>369510</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.173012252634781</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1551318983278446</v>
+        <v>0.1550484926905711</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1886835982668919</v>
+        <v>0.1899067795244458</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>471764</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>441738</v>
+        <v>442897</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>504939</v>
+        <v>502808</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5045902977318855</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4724752543386129</v>
+        <v>0.4737150055823428</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5400736238420231</v>
+        <v>0.5377946891828855</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>305</v>
@@ -3948,19 +3948,19 @@
         <v>316777</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>286259</v>
+        <v>285441</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>348266</v>
+        <v>348950</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3133928011050868</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2832004669943815</v>
+        <v>0.2823911328881633</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3445455911508945</v>
+        <v>0.3452224364868801</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>759</v>
@@ -3969,19 +3969,19 @@
         <v>788541</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>742708</v>
+        <v>746958</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>834652</v>
+        <v>837665</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4052646603262375</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3817089639940975</v>
+        <v>0.383893611501834</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4289630098605249</v>
+        <v>0.4305115222013435</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>313377</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>282818</v>
+        <v>283315</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>341583</v>
+        <v>341214</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3351828177236932</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3024964097783548</v>
+        <v>0.3030287581618484</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3653513899475866</v>
+        <v>0.3649567115231597</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>444</v>
@@ -4019,19 +4019,19 @@
         <v>469901</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>436549</v>
+        <v>438554</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>500994</v>
+        <v>503206</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4648808887406995</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4318853137097394</v>
+        <v>0.4338686901389812</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4956412646360831</v>
+        <v>0.4978296155541929</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>748</v>
@@ -4040,19 +4040,19 @@
         <v>783278</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>736119</v>
+        <v>737362</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>829975</v>
+        <v>826331</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.402559973812679</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3783227886984052</v>
+        <v>0.3789614322295968</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4265591825046462</v>
+        <v>0.4246867155942555</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>11593</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6486</v>
+        <v>6667</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19297</v>
+        <v>20216</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01239937274682913</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006936995891335554</v>
+        <v>0.007131092791401302</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02064017750013106</v>
+        <v>0.02162243803218272</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -4090,19 +4090,19 @@
         <v>25694</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17001</v>
+        <v>16047</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>36422</v>
+        <v>36032</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02541927658320883</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01681943617633199</v>
+        <v>0.01587547847265383</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03603331486259746</v>
+        <v>0.03564721373304129</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -4111,19 +4111,19 @@
         <v>37286</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>27256</v>
+        <v>26984</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>52562</v>
+        <v>51358</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01916311322630252</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01400792725790041</v>
+        <v>0.01386820967813235</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02701370111371083</v>
+        <v>0.02639517100196395</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>555303</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>509525</v>
+        <v>515435</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>605647</v>
+        <v>603805</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1652519369933603</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1516289655994046</v>
+        <v>0.153387701039976</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1802338987128513</v>
+        <v>0.1796858143168582</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>669</v>
@@ -4236,19 +4236,19 @@
         <v>718009</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>672690</v>
+        <v>671745</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>770058</v>
+        <v>767903</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2107116530554805</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1974121597492258</v>
+        <v>0.1971348882414079</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2259863696221692</v>
+        <v>0.2253540689922032</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1179</v>
@@ -4257,19 +4257,19 @@
         <v>1273311</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1205324</v>
+        <v>1198779</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1339959</v>
+        <v>1333796</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1881403202191062</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1780946611697248</v>
+        <v>0.1771276022033057</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1979878712914117</v>
+        <v>0.1970773354030113</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>1642321</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1584025</v>
+        <v>1582495</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1702424</v>
+        <v>1704244</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4887365581400693</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4713883511715405</v>
+        <v>0.4709331117090512</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5066226517678462</v>
+        <v>0.5071642706269961</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1048</v>
@@ -4307,19 +4307,19 @@
         <v>1133200</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1073652</v>
+        <v>1077877</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1192582</v>
+        <v>1194975</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3325565453322095</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3150809388950284</v>
+        <v>0.3163210449993251</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3499829490969429</v>
+        <v>0.3506853844446721</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2585</v>
@@ -4328,19 +4328,19 @@
         <v>2775521</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2691760</v>
+        <v>2694181</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2863381</v>
+        <v>2861228</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4101019274163887</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3977255818141964</v>
+        <v>0.3980833381395313</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4230838276363191</v>
+        <v>0.4227656758508325</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>1131660</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1072136</v>
+        <v>1072520</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1183771</v>
+        <v>1191167</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3367695343747366</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.319055706251436</v>
+        <v>0.31916997284416</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3522770270190165</v>
+        <v>0.3544781577593494</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1357</v>
@@ -4378,19 +4378,19 @@
         <v>1472545</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1409983</v>
+        <v>1413496</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1533500</v>
+        <v>1538762</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4321427666024237</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.413783017513567</v>
+        <v>0.4148138176075473</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4500310238059305</v>
+        <v>0.451575261899039</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2428</v>
@@ -4399,19 +4399,19 @@
         <v>2604205</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2521150</v>
+        <v>2518894</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2689648</v>
+        <v>2684680</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3847887319808632</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3725168558802266</v>
+        <v>0.3721834755871652</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3974135894383055</v>
+        <v>0.396679449430396</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>31056</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>22085</v>
+        <v>20434</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>44604</v>
+        <v>42829</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.009241970491833926</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.006572271559890536</v>
+        <v>0.006081011199231422</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0132737468276462</v>
+        <v>0.01274530408755849</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>82</v>
@@ -4449,19 +4449,19 @@
         <v>83788</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>67921</v>
+        <v>67571</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>104524</v>
+        <v>104138</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02458903500988623</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0199324608911636</v>
+        <v>0.01982977195605624</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03067441967756795</v>
+        <v>0.0305611574651234</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>113</v>
@@ -4470,19 +4470,19 @@
         <v>114844</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>96344</v>
+        <v>96616</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>139160</v>
+        <v>138914</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01696902038364192</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01423545919090733</v>
+        <v>0.01427565903969611</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02056184918478399</v>
+        <v>0.02052552518267435</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>129237</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>111659</v>
+        <v>108480</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>150564</v>
+        <v>151055</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2024548879686746</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1749171615031533</v>
+        <v>0.1699381536327325</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.235864328915962</v>
+        <v>0.2366331043232407</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>118</v>
@@ -4835,19 +4835,19 @@
         <v>121516</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>102678</v>
+        <v>100736</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>144322</v>
+        <v>141008</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1973229281462351</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1667326561630432</v>
+        <v>0.1635798347618728</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2343556133913938</v>
+        <v>0.2289745093181621</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>240</v>
@@ -4856,19 +4856,19 @@
         <v>250753</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>222438</v>
+        <v>224434</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>279721</v>
+        <v>283800</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.19993499815119</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.177357958969122</v>
+        <v>0.1789495225719531</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.223032218923523</v>
+        <v>0.2262843579549263</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>284818</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>259532</v>
+        <v>260084</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>310029</v>
+        <v>310583</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4461776153788293</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4065670408372778</v>
+        <v>0.407431097220768</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4856713206468445</v>
+        <v>0.4865401857821337</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>211</v>
@@ -4906,19 +4906,19 @@
         <v>213390</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>187806</v>
+        <v>190141</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>236027</v>
+        <v>237498</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3465114742915884</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.304966866529432</v>
+        <v>0.308759779725662</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3832700317246118</v>
+        <v>0.3856599284520314</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>488</v>
@@ -4927,19 +4927,19 @@
         <v>498208</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>465127</v>
+        <v>465902</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>533604</v>
+        <v>531512</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3972396457213945</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3708630193451855</v>
+        <v>0.3714812844223858</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4254628346092478</v>
+        <v>0.423794091068556</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>221157</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>198685</v>
+        <v>197463</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>244693</v>
+        <v>245451</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3464499571607591</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3112464776216787</v>
+        <v>0.3093332480256903</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3833205437302678</v>
+        <v>0.3845079596039646</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>268</v>
@@ -4977,19 +4977,19 @@
         <v>263924</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>241097</v>
+        <v>240243</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>289109</v>
+        <v>287387</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4285710216480886</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3915031820791445</v>
+        <v>0.3901167105264432</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4694670046453826</v>
+        <v>0.4666710190958994</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>482</v>
@@ -4998,19 +4998,19 @@
         <v>485081</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>449468</v>
+        <v>448392</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>518123</v>
+        <v>519352</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3867729607232163</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3583779675209549</v>
+        <v>0.357519921245293</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4131192277011476</v>
+        <v>0.4140984667484562</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>3139</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8438</v>
+        <v>8521</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004917539491736941</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001551881272075377</v>
+        <v>0.001554469678045885</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01321788275871757</v>
+        <v>0.01334823512991926</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -5048,19 +5048,19 @@
         <v>16993</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9642</v>
+        <v>9751</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26140</v>
+        <v>26528</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02759457591408792</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01565790311183893</v>
+        <v>0.01583489247420046</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04244684055545008</v>
+        <v>0.04307802386985678</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -5069,19 +5069,19 @@
         <v>20132</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12577</v>
+        <v>12750</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30258</v>
+        <v>31749</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01605239540419913</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01002829112703414</v>
+        <v>0.01016640112349018</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02412565613156862</v>
+        <v>0.0253143365011582</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>177334</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>153924</v>
+        <v>154519</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>204795</v>
+        <v>202863</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1801709854565536</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.156387077717025</v>
+        <v>0.1569909103361371</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2080713384828337</v>
+        <v>0.2061088740304398</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>184</v>
@@ -5194,19 +5194,19 @@
         <v>199887</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>176978</v>
+        <v>174429</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>224654</v>
+        <v>228505</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2010504236957263</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1780076210229324</v>
+        <v>0.1754442718955427</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2259614237620757</v>
+        <v>0.2298345458164065</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>348</v>
@@ -5215,19 +5215,19 @@
         <v>377221</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>343142</v>
+        <v>341441</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>414152</v>
+        <v>415973</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.190663273382583</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1734384595404533</v>
+        <v>0.1725784524029419</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2093295997154629</v>
+        <v>0.2102499308824233</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>410577</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>380701</v>
+        <v>379506</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>443864</v>
+        <v>441254</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4171454083277881</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3867919819416558</v>
+        <v>0.3855779806216397</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4509650835637056</v>
+        <v>0.4483131149499452</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>328</v>
@@ -5265,19 +5265,19 @@
         <v>354306</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>323349</v>
+        <v>322698</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>386891</v>
+        <v>386360</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3563676136659409</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.32523070159359</v>
+        <v>0.3245760644809103</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3891424657471793</v>
+        <v>0.3886077594526024</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>713</v>
@@ -5286,19 +5286,19 @@
         <v>764883</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>722604</v>
+        <v>719427</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>812306</v>
+        <v>807045</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3866034888663351</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3652342833472624</v>
+        <v>0.363628482370506</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4105731143484247</v>
+        <v>0.4079142936439578</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>385654</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>354161</v>
+        <v>351329</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>415646</v>
+        <v>416343</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3918243122670206</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3598274368482785</v>
+        <v>0.356949828698221</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4222957655667539</v>
+        <v>0.423004501256069</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>397</v>
@@ -5336,19 +5336,19 @@
         <v>415104</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>384617</v>
+        <v>381439</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>447850</v>
+        <v>445224</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4175189375845012</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3868544536031303</v>
+        <v>0.3836589137080623</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4504556756543934</v>
+        <v>0.4478147399951404</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>754</v>
@@ -5357,19 +5357,19 @@
         <v>800758</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>754802</v>
+        <v>751822</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>843143</v>
+        <v>843430</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4047363170774113</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3815085343419897</v>
+        <v>0.3800019513443937</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4261595935330337</v>
+        <v>0.4263047698423614</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>10688</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5590</v>
+        <v>5306</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19958</v>
+        <v>19512</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0108592939486376</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005679156018451791</v>
+        <v>0.005391374179299926</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02027740266786265</v>
+        <v>0.01982414909929803</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -5407,19 +5407,19 @@
         <v>24918</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16633</v>
+        <v>16836</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36201</v>
+        <v>35867</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02506302505383155</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01672989920199806</v>
+        <v>0.01693440398798766</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03641123658987479</v>
+        <v>0.03607591166399662</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>36</v>
@@ -5428,19 +5428,19 @@
         <v>35606</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>24335</v>
+        <v>24991</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>47871</v>
+        <v>48161</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01799692067367061</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0123001240878676</v>
+        <v>0.01263157657099792</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02419583827369894</v>
+        <v>0.02434244803081672</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>117115</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>97905</v>
+        <v>97715</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>138779</v>
+        <v>138292</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.157084719453244</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1313180357832995</v>
+        <v>0.1310634307049292</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1861425073896243</v>
+        <v>0.1854885104770995</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>102</v>
@@ -5553,19 +5553,19 @@
         <v>116074</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>96165</v>
+        <v>95164</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>138808</v>
+        <v>138197</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1552825798040716</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1286485454844714</v>
+        <v>0.1273101160079709</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1856966859954033</v>
+        <v>0.1848786426931954</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>209</v>
@@ -5574,19 +5574,19 @@
         <v>233189</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>198826</v>
+        <v>203833</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>260996</v>
+        <v>262287</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1561824768396843</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.133167263038589</v>
+        <v>0.1365205639393426</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1748066817556805</v>
+        <v>0.1756716084710718</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>325176</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>297271</v>
+        <v>297459</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>352727</v>
+        <v>353476</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4361526928611225</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3987250745131325</v>
+        <v>0.3989767542230271</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4731065069747893</v>
+        <v>0.4741116218836199</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>224</v>
@@ -5624,19 +5624,19 @@
         <v>238283</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>211550</v>
+        <v>215271</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>263481</v>
+        <v>269134</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.318773313781295</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2830110769348615</v>
+        <v>0.2879877972519801</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3524835690577174</v>
+        <v>0.3600458003863744</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>525</v>
@@ -5645,19 +5645,19 @@
         <v>563459</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>524949</v>
+        <v>525887</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>604569</v>
+        <v>600950</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3773866156552657</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3515937983642634</v>
+        <v>0.3522223878324127</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4049212543486391</v>
+        <v>0.4024974538348141</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>294712</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>266759</v>
+        <v>268269</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>325379</v>
+        <v>323346</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3952925854696812</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3577990784148805</v>
+        <v>0.3598251438950752</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4364247154293771</v>
+        <v>0.433698412933097</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>356</v>
@@ -5695,19 +5695,19 @@
         <v>371778</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>344412</v>
+        <v>341433</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>400233</v>
+        <v>398096</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4973620846252378</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4607523183821864</v>
+        <v>0.4567672198825022</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5354295618564654</v>
+        <v>0.5325707994863916</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>622</v>
@@ -5716,19 +5716,19 @@
         <v>666490</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>626464</v>
+        <v>628132</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>705471</v>
+        <v>705993</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4463937594131836</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4195853884275597</v>
+        <v>0.420702828829997</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.472502185714269</v>
+        <v>0.4728519439944202</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>8552</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4047</v>
+        <v>4003</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16489</v>
+        <v>16525</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01147000221595225</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005427585416930656</v>
+        <v>0.005369364006059701</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02211706180186113</v>
+        <v>0.0221649371566506</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -5766,19 +5766,19 @@
         <v>21365</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13435</v>
+        <v>13707</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>32551</v>
+        <v>32515</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02858202178939558</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01797351006216494</v>
+        <v>0.01833668322711017</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04354654421694205</v>
+        <v>0.04349877064052713</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>29</v>
@@ -5787,19 +5787,19 @@
         <v>29917</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>20373</v>
+        <v>21857</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>42809</v>
+        <v>43886</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02003714809186636</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01364537095659394</v>
+        <v>0.01463900448245059</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02867200764385765</v>
+        <v>0.02939356226722848</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>132809</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>112550</v>
+        <v>111598</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>155534</v>
+        <v>153906</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1466279223315054</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1242610288505244</v>
+        <v>0.1232094755891572</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1717172990484948</v>
+        <v>0.1699197077012884</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>164</v>
@@ -5912,19 +5912,19 @@
         <v>187001</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>161422</v>
+        <v>162997</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>215118</v>
+        <v>217076</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1898892210767603</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1639148056282255</v>
+        <v>0.1655145842531977</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2184399722375157</v>
+        <v>0.2204289725891813</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>296</v>
@@ -5933,19 +5933,19 @@
         <v>319810</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>286194</v>
+        <v>287219</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>354773</v>
+        <v>354114</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1691628382519401</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1513812595350327</v>
+        <v>0.1519236569064927</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1876562182918947</v>
+        <v>0.1873078037413536</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>410662</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>379746</v>
+        <v>381292</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>438070</v>
+        <v>443113</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4533906055666983</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.419258689219154</v>
+        <v>0.4209648498746069</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4836508908862664</v>
+        <v>0.4892188536745468</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>293</v>
@@ -5983,19 +5983,19 @@
         <v>316764</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>287451</v>
+        <v>286174</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>349266</v>
+        <v>346711</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3216560481318729</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.291890266498887</v>
+        <v>0.2905933728917836</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3546597159151602</v>
+        <v>0.3520656088984764</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>702</v>
@@ -6004,19 +6004,19 @@
         <v>727426</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>687193</v>
+        <v>687948</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>772929</v>
+        <v>767433</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.384769753634113</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3634887689565762</v>
+        <v>0.3638880472311445</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4088388112029954</v>
+        <v>0.4059313371117244</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>354948</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>326150</v>
+        <v>324742</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>382379</v>
+        <v>384313</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3918796408164931</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3600850468423185</v>
+        <v>0.3585309298080693</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4221645664678954</v>
+        <v>0.4243002288878007</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>433</v>
@@ -6054,19 +6054,19 @@
         <v>461832</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>430842</v>
+        <v>431631</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>496991</v>
+        <v>495149</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4689648729598765</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4374956434427944</v>
+        <v>0.4382968885051021</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.504666919181768</v>
+        <v>0.50279644109301</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>786</v>
@@ -6075,19 +6075,19 @@
         <v>816780</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>772019</v>
+        <v>773075</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>858755</v>
+        <v>859170</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.432033526054367</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4083573426499409</v>
+        <v>0.4089155930361172</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.45423610144733</v>
+        <v>0.4544557340893488</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>7338</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3603</v>
+        <v>3623</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13151</v>
+        <v>13986</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008101831285303137</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003977441846184085</v>
+        <v>0.003999744449325902</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01451940564453661</v>
+        <v>0.01544104695739839</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -6125,19 +6125,19 @@
         <v>19193</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11523</v>
+        <v>11327</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30372</v>
+        <v>28974</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01948985783149031</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01170122135813426</v>
+        <v>0.01150157647975238</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03084122559686456</v>
+        <v>0.02942191063129825</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -6146,19 +6146,19 @@
         <v>26532</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16845</v>
+        <v>16986</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>37558</v>
+        <v>39253</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01403388205957989</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00890989514396949</v>
+        <v>0.008984521424640004</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01986641003332946</v>
+        <v>0.02076276286062687</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>556496</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>514088</v>
+        <v>514045</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>598081</v>
+        <v>601672</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1699786011504099</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1570254086604667</v>
+        <v>0.1570121827020046</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1826807526177207</v>
+        <v>0.1837775042048599</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>568</v>
@@ -6271,19 +6271,19 @@
         <v>624478</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>581536</v>
+        <v>580852</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>669814</v>
+        <v>673040</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1868392714366687</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1739914460676</v>
+        <v>0.1737867581413026</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2004033091940753</v>
+        <v>0.2013686481608608</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1093</v>
@@ -6292,19 +6292,19 @@
         <v>1180974</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1108972</v>
+        <v>1118694</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1241832</v>
+        <v>1241984</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1784961065829205</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.167613575970413</v>
+        <v>0.169082959754227</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1876944203854455</v>
+        <v>0.1877174176137923</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>1431232</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1369892</v>
+        <v>1369287</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1482470</v>
+        <v>1491392</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4371621293110291</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4184261454443097</v>
+        <v>0.418241466426754</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4528124964271413</v>
+        <v>0.455537499806048</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1056</v>
@@ -6342,19 +6342,19 @@
         <v>1122742</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1068502</v>
+        <v>1066057</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1174032</v>
+        <v>1176272</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3359163089725023</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3196879023165216</v>
+        <v>0.3189565406622016</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3512617522445551</v>
+        <v>0.3519320278286947</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2428</v>
@@ -6363,19 +6363,19 @@
         <v>2553975</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2467572</v>
+        <v>2483082</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2633458</v>
+        <v>2635250</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3860157745035806</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3729566299352207</v>
+        <v>0.3753008906083191</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3980291772209896</v>
+        <v>0.3983000444585168</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>1256471</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1204009</v>
+        <v>1203257</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1313723</v>
+        <v>1316517</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3837823055425885</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3677579729369253</v>
+        <v>0.3675284198840065</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4012694711635466</v>
+        <v>0.4021231587475215</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1454</v>
@@ -6413,19 +6413,19 @@
         <v>1512638</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1452860</v>
+        <v>1449566</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1568097</v>
+        <v>1564557</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4525700374501901</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4346851299564925</v>
+        <v>0.4336996090358649</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4691632156984325</v>
+        <v>0.4681039130231349</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2644</v>
@@ -6434,19 +6434,19 @@
         <v>2769109</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2692616</v>
+        <v>2688346</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2846961</v>
+        <v>2846926</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4185318066161361</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4069704817049585</v>
+        <v>0.4063250838208783</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4302986332807889</v>
+        <v>0.4302933788636134</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>29717</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>20327</v>
+        <v>20184</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>41783</v>
+        <v>42197</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.009076963995972499</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.00620867649705943</v>
+        <v>0.006165133518275716</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01276239618263876</v>
+        <v>0.01288873218015842</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>82</v>
@@ -6484,19 +6484,19 @@
         <v>82470</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>66769</v>
+        <v>68049</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>100504</v>
+        <v>103639</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02467438214063885</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01997677207783279</v>
+        <v>0.02035984006492881</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03007006605098963</v>
+        <v>0.03100814951765529</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>111</v>
@@ -6505,19 +6505,19 @@
         <v>112187</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>92629</v>
+        <v>93243</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>134312</v>
+        <v>134000</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01695631229736281</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01400028468188435</v>
+        <v>0.01409310398845161</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02030027647050152</v>
+        <v>0.02025312157048695</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>123787</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>105306</v>
+        <v>104630</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>143693</v>
+        <v>143440</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1853067909478906</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1576405008252734</v>
+        <v>0.1566285500016615</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.21510636418426</v>
+        <v>0.2147275592801225</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>253</v>
@@ -6870,19 +6870,19 @@
         <v>137755</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>120385</v>
+        <v>121891</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>154578</v>
+        <v>154902</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1975839341140991</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1726697877649893</v>
+        <v>0.1748310372305781</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2217138715165777</v>
+        <v>0.2221783082458275</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>399</v>
@@ -6891,19 +6891,19 @@
         <v>261542</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>235837</v>
+        <v>238004</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>287691</v>
+        <v>290736</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1915765932119355</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1727484769073878</v>
+        <v>0.1743354369633002</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.210730484974073</v>
+        <v>0.2129610183110024</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>327829</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>297075</v>
+        <v>299589</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>355753</v>
+        <v>355303</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4907537513391245</v>
+        <v>0.4907537513391247</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4447154127843722</v>
+        <v>0.448478587541529</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5325550374517418</v>
+        <v>0.5318826134037224</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>455</v>
@@ -6941,19 +6941,19 @@
         <v>252455</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>232163</v>
+        <v>233611</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>272846</v>
+        <v>273732</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3621011444901095</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.332995179914256</v>
+        <v>0.3350720881281496</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3913471136186736</v>
+        <v>0.3926182876155641</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>811</v>
@@ -6962,19 +6962,19 @@
         <v>580284</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>545694</v>
+        <v>544010</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>616940</v>
+        <v>616959</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.425052277081059</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3997152809152329</v>
+        <v>0.3984818375177907</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4519024332926382</v>
+        <v>0.4519160713608054</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>202908</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>178602</v>
+        <v>179755</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>229658</v>
+        <v>231389</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3037494130671994</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2673637379539134</v>
+        <v>0.2690891987820688</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3437930684593679</v>
+        <v>0.3463856596773336</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>449</v>
@@ -7012,19 +7012,19 @@
         <v>294643</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>271261</v>
+        <v>272936</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>317427</v>
+        <v>316225</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4226110322638408</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3890741281688784</v>
+        <v>0.3914767369045727</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4552902678221387</v>
+        <v>0.453566530439852</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>649</v>
@@ -7033,19 +7033,19 @@
         <v>497551</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>463619</v>
+        <v>463094</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>534205</v>
+        <v>530478</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3644507373946972</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3395959074546125</v>
+        <v>0.3392113952142931</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3912993376372867</v>
+        <v>0.3885696087795023</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>13487</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4792</v>
+        <v>5565</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34038</v>
+        <v>31324</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02019004464578547</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007173363330414898</v>
+        <v>0.008330396061454732</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05095425718713932</v>
+        <v>0.04689126109651951</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -7083,19 +7083,19 @@
         <v>12343</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6743</v>
+        <v>6725</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24977</v>
+        <v>25192</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01770388913195054</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009671119830046412</v>
+        <v>0.009645436210096966</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03582434500996844</v>
+        <v>0.03613383214496428</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -7104,19 +7104,19 @@
         <v>25830</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15245</v>
+        <v>14878</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44022</v>
+        <v>44713</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0189203923123083</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01116677274900833</v>
+        <v>0.01089775144105892</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03224534259856141</v>
+        <v>0.03275181244844964</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>165515</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>141475</v>
+        <v>140930</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>193836</v>
+        <v>192442</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1595276776672634</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.136357766723451</v>
+        <v>0.1358319075695785</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.186823956810712</v>
+        <v>0.1854806412276744</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>240</v>
@@ -7229,19 +7229,19 @@
         <v>156145</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>138460</v>
+        <v>137188</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>177637</v>
+        <v>175924</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1505078642918161</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1334618098385589</v>
+        <v>0.1322354257774955</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.171224430964555</v>
+        <v>0.169572892500142</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>407</v>
@@ -7250,19 +7250,19 @@
         <v>321659</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>288569</v>
+        <v>289773</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>357837</v>
+        <v>355419</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1550179459031512</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1390706465766934</v>
+        <v>0.1396507470616295</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1724530575885525</v>
+        <v>0.1712878549123154</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>440308</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>405989</v>
+        <v>401593</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>480222</v>
+        <v>473242</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4243805651323391</v>
+        <v>0.424380565132339</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.391302884753006</v>
+        <v>0.3870663399708605</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4628511675521249</v>
+        <v>0.4561229398917083</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>581</v>
@@ -7300,19 +7300,19 @@
         <v>379814</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>350743</v>
+        <v>351432</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>406720</v>
+        <v>405128</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3661029199896837</v>
+        <v>0.3661029199896838</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.338081837010115</v>
+        <v>0.3387460842873397</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3920375624261999</v>
+        <v>0.3905034719419879</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1006</v>
@@ -7321,19 +7321,19 @@
         <v>820122</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>774791</v>
+        <v>774978</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>866164</v>
+        <v>863194</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3952428727547004</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3733962996336679</v>
+        <v>0.3734863892000644</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4174318203284683</v>
+        <v>0.4160006957109278</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>430625</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>391769</v>
+        <v>392835</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>465111</v>
+        <v>467544</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4150476202124058</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3775970355762077</v>
+        <v>0.3786244049585886</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4482867630332631</v>
+        <v>0.4506310040179515</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>612</v>
@@ -7371,19 +7371,19 @@
         <v>472612</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>443145</v>
+        <v>445407</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>501317</v>
+        <v>503991</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.455550846562728</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4271475803962677</v>
+        <v>0.4293281130702142</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4832198747112161</v>
+        <v>0.4857971842936247</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>970</v>
@@ -7392,19 +7392,19 @@
         <v>903236</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>856455</v>
+        <v>861632</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>949129</v>
+        <v>953669</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.435298447897853</v>
+        <v>0.4352984478978529</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4127530950510091</v>
+        <v>0.4152481590789879</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4574156670516668</v>
+        <v>0.4596033721004962</v>
       </c>
     </row>
     <row r="12">
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6490</v>
+        <v>6742</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.001044136987991781</v>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.006255334779678224</v>
+        <v>0.006498074570670543</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>28</v>
@@ -7442,19 +7442,19 @@
         <v>28881</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18565</v>
+        <v>19920</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>44731</v>
+        <v>43624</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.02783836915577231</v>
+        <v>0.02783836915577232</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0178946232692772</v>
+        <v>0.01920108399748941</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04311641739886136</v>
+        <v>0.04204909890229053</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>29</v>
@@ -7463,19 +7463,19 @@
         <v>29964</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20351</v>
+        <v>20064</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>44994</v>
+        <v>43267</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.01444073344429544</v>
+        <v>0.01444073344429543</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009807885314090612</v>
+        <v>0.009669319624839613</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02168421455537844</v>
+        <v>0.02085161842120871</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>137707</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>115349</v>
+        <v>115757</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>161867</v>
+        <v>162558</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1747231456524755</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1463549927898389</v>
+        <v>0.1468729384304397</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2053774328327055</v>
+        <v>0.2062543362308882</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>176</v>
@@ -7588,19 +7588,19 @@
         <v>127484</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>110361</v>
+        <v>109875</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>145343</v>
+        <v>146390</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1618713501059191</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1401299456076316</v>
+        <v>0.1395132011099992</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1845481988602011</v>
+        <v>0.1858777614828897</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>303</v>
@@ -7609,19 +7609,19 @@
         <v>265191</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>235798</v>
+        <v>237451</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>296614</v>
+        <v>295912</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1682996187463158</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1496459107452871</v>
+        <v>0.1506952680802357</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1882419315037185</v>
+        <v>0.1877964388041713</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>357681</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>323637</v>
+        <v>325866</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>390114</v>
+        <v>391221</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4538271413553328</v>
+        <v>0.4538271413553329</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4106317570392339</v>
+        <v>0.4134606372304006</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4949789375969085</v>
+        <v>0.4963834552855426</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>356</v>
@@ -7659,19 +7659,19 @@
         <v>263541</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>239408</v>
+        <v>239327</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>289951</v>
+        <v>288298</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3346291110311446</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3039858141540739</v>
+        <v>0.3038832321919527</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3681629816324638</v>
+        <v>0.3660635855638293</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>673</v>
@@ -7680,19 +7680,19 @@
         <v>621222</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>580371</v>
+        <v>581732</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>660183</v>
+        <v>659989</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3942501155479287</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3683248400069161</v>
+        <v>0.3691885752412692</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4189764091299997</v>
+        <v>0.418853145327199</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>281718</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>251650</v>
+        <v>247700</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>314239</v>
+        <v>312025</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3574454116627049</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3192945694453287</v>
+        <v>0.3142831869002502</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3987084969922332</v>
+        <v>0.3958991551263029</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>455</v>
@@ -7730,19 +7730,19 @@
         <v>378929</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>352798</v>
+        <v>350453</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>404616</v>
+        <v>405500</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4811416143315276</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4479623105906777</v>
+        <v>0.4449847139161335</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.513757031120907</v>
+        <v>0.514880061818669</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>670</v>
@@ -7751,19 +7751,19 @@
         <v>660647</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>620180</v>
+        <v>622203</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>704809</v>
+        <v>703805</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4192706938308357</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3935890579349191</v>
+        <v>0.3948726363600379</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4472974294863639</v>
+        <v>0.4466603915938916</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>11037</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3800</v>
+        <v>4065</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26474</v>
+        <v>27378</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01400430132948667</v>
+        <v>0.01400430132948668</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004821395604257575</v>
+        <v>0.005157224652307328</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03358987324076666</v>
+        <v>0.03473715682191934</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -7801,19 +7801,19 @@
         <v>17608</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11090</v>
+        <v>11101</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28171</v>
+        <v>28831</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0223579245314087</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01408112326999741</v>
+        <v>0.01409486959264082</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0357694330164291</v>
+        <v>0.03660772631059966</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -7822,19 +7822,19 @@
         <v>28646</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17923</v>
+        <v>17961</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>44192</v>
+        <v>48021</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.0181795718749199</v>
+        <v>0.01817957187491989</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01137459995984867</v>
+        <v>0.01139841838718156</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02804568163738639</v>
+        <v>0.03047588251643608</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>160295</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>138153</v>
+        <v>138001</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>186632</v>
+        <v>184950</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.167212740497258</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1441155219096191</v>
+        <v>0.1439566953556893</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.194685871658567</v>
+        <v>0.1929310912984349</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>296</v>
@@ -7947,19 +7947,19 @@
         <v>196470</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>175718</v>
+        <v>177110</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>216560</v>
+        <v>218054</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1836039600395852</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1642106750730853</v>
+        <v>0.1655114779011949</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2023782120025726</v>
+        <v>0.2037743315989522</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>469</v>
@@ -7968,19 +7968,19 @@
         <v>356766</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>324836</v>
+        <v>326672</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>385923</v>
+        <v>387060</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1758585759591334</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1601197982421762</v>
+        <v>0.1610244896820415</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1902310413726967</v>
+        <v>0.1907916332929278</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>425249</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>392480</v>
+        <v>392032</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>456924</v>
+        <v>457825</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4436009781212945</v>
+        <v>0.4436009781212946</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4094173123017361</v>
+        <v>0.4089500469634209</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4766423952078007</v>
+        <v>0.4775829320573454</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>513</v>
@@ -8018,19 +8018,19 @@
         <v>340591</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>315304</v>
+        <v>315331</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>369322</v>
+        <v>366509</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3182866945261033</v>
+        <v>0.3182866945261032</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2946550022874944</v>
+        <v>0.2946803023205258</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3451358170716599</v>
+        <v>0.3425070971428798</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>975</v>
@@ -8039,19 +8039,19 @@
         <v>765840</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>722836</v>
+        <v>723738</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>806356</v>
+        <v>806153</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3775017672487278</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3563040040912822</v>
+        <v>0.356748286890653</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3974726798089356</v>
+        <v>0.3973728414399495</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>365461</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>331244</v>
+        <v>333913</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>398728</v>
+        <v>396420</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3812324164568849</v>
+        <v>0.381232416456885</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3455389203973987</v>
+        <v>0.3483231283066995</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4159354143533959</v>
+        <v>0.4135272136412756</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>654</v>
@@ -8089,19 +8089,19 @@
         <v>508889</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>479727</v>
+        <v>480891</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>537663</v>
+        <v>538301</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.4755633563918346</v>
+        <v>0.4755633563918345</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4483105568642648</v>
+        <v>0.4493984413734251</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5024527523385377</v>
+        <v>0.5030485709854476</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>983</v>
@@ -8110,19 +8110,19 @@
         <v>874350</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>831115</v>
+        <v>833228</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>919758</v>
+        <v>921298</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.4309889207569815</v>
+        <v>0.4309889207569814</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4096769702253213</v>
+        <v>0.4107187979550284</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4533715840389853</v>
+        <v>0.4541308187821255</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>7625</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2737</v>
+        <v>3023</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17053</v>
+        <v>17842</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007953864924562477</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002855107014974516</v>
+        <v>0.003153133441761543</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01778878478609825</v>
+        <v>0.0186115360183987</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -8160,19 +8160,19 @@
         <v>24126</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15042</v>
+        <v>15251</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35911</v>
+        <v>35787</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.02254598904247715</v>
+        <v>0.02254598904247714</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01405734266796929</v>
+        <v>0.01425256589971979</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03355923381135299</v>
+        <v>0.0334436225606935</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -8181,19 +8181,19 @@
         <v>31751</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21794</v>
+        <v>21016</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48099</v>
+        <v>46708</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01565073603515724</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01074257644682541</v>
+        <v>0.0103591089315168</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02370933609818143</v>
+        <v>0.02302365260664745</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>587304</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>539066</v>
+        <v>538298</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>632424</v>
+        <v>630263</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1701188478098171</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1561463603124457</v>
+        <v>0.1559238264511973</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1831883927307408</v>
+        <v>0.1825625650796149</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>965</v>
@@ -8306,19 +8306,19 @@
         <v>617853</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>582723</v>
+        <v>581079</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>657904</v>
+        <v>658063</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1719944818956029</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.162215211839431</v>
+        <v>0.1617575678300949</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1831434492571926</v>
+        <v>0.1831877193253705</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1578</v>
@@ -8327,19 +8327,19 @@
         <v>1205157</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1141892</v>
+        <v>1144108</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1264879</v>
+        <v>1263225</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1710752985301051</v>
+        <v>0.171075298530105</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1620946296369999</v>
+        <v>0.1624092396576425</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1795529247436644</v>
+        <v>0.1793181573559217</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>1551067</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1493713</v>
+        <v>1491013</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1621291</v>
+        <v>1611025</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4492830929952469</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4326700960591776</v>
+        <v>0.431887755008998</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4696242809717013</v>
+        <v>0.4666505249932144</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1905</v>
@@ -8377,19 +8377,19 @@
         <v>1236402</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1186861</v>
+        <v>1185762</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1285483</v>
+        <v>1281722</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3441824359844478</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3303914460635307</v>
+        <v>0.3300857602621529</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3578453602416384</v>
+        <v>0.3567983235375682</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3465</v>
@@ -8398,19 +8398,19 @@
         <v>2787469</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2702954</v>
+        <v>2702328</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2868464</v>
+        <v>2864388</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3956886313342437</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3836915374434497</v>
+        <v>0.383602667985362</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4071861584348335</v>
+        <v>0.4066075722427059</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>1280712</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1217235</v>
+        <v>1214414</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1345312</v>
+        <v>1340296</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3709718531334412</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3525852602293667</v>
+        <v>0.3517679579648882</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3896840206401907</v>
+        <v>0.3882311886993645</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2170</v>
@@ -8448,19 +8448,19 @@
         <v>1655073</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1601551</v>
+        <v>1604428</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1714828</v>
+        <v>1711848</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4607296480959466</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4458306168360801</v>
+        <v>0.4466315565117377</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4773640720279341</v>
+        <v>0.4765344691399999</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3272</v>
@@ -8469,19 +8469,19 @@
         <v>2935784</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2853627</v>
+        <v>2859958</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3026647</v>
+        <v>3027588</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4167424585483996</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4050799819281278</v>
+        <v>0.4059786590673917</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4296406741351033</v>
+        <v>0.429774164465134</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>33233</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>20468</v>
+        <v>18883</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>55976</v>
+        <v>56245</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.009626206061494872</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.005928703235859346</v>
+        <v>0.005469638817876607</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01621417133324227</v>
+        <v>0.01629207841978537</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>89</v>
@@ -8519,19 +8519,19 @@
         <v>82958</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>65683</v>
+        <v>65036</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>104696</v>
+        <v>103929</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02309343402400281</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01828443118464559</v>
+        <v>0.01810429707406981</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02914478710538671</v>
+        <v>0.02893110998376791</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>110</v>
@@ -8540,19 +8540,19 @@
         <v>116191</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>93753</v>
+        <v>94158</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>145784</v>
+        <v>145295</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01649361158725156</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0133085039306046</v>
+        <v>0.01336594005975257</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02069449361305446</v>
+        <v>0.02062503235176935</v>
       </c>
     </row>
     <row r="28">
